--- a/medicine/Psychotrope/Brasserie_Demanez/Brasserie_Demanez.xlsx
+++ b/medicine/Psychotrope/Brasserie_Demanez/Brasserie_Demanez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La brasserie Demanez est une brasserie artisanale belge située à Magerotte dans la commune de Sainte-Ode en province de Luxembourg. Elle produit les bières B.R.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sébastien Demanez, employé de banque d'origine binchoise décide de changer de vie et de région. Il s'installe dans le petit village ardennais de Magerotte où il transforme une fermette en pierre du pays en brasserie. L'ouverture a lieu en mars 2014. Les installations permettent de produire des brassins de 600 l de bière. La brasserie produit exclusivement des bières produites avec des ingrédients issus de l'agriculture biologique.
 </t>
@@ -543,7 +557,9 @@
           <t>Logo</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs éléments figurent sur le logo de labrasserie présent sur les étiquettes.
 Une roue de chariot représente le métier de charron que pratiquaient les ancêtres de Sébastien Demanez depuis au moins 1713.
@@ -578,7 +594,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La brasserie produit cinq variétés de bières de fermentation haute avec refermentation en bouteille de 75 cl et certifiées Bio :
 B.R.Blonde, une bière blonde titrant 6,2 % en volume d'alcool.
